--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164633.9695052117</v>
+        <v>178360.3276426298</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-6750.748617138408</v>
       </c>
       <c r="E6" t="n">
-        <v>-82825.92099441048</v>
+        <v>-82825.92099441054</v>
       </c>
       <c r="F6" t="n">
         <v>50274.0790055895</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178360.3276426298</v>
+        <v>53250.42884515314</v>
       </c>
     </row>
     <row r="7">
@@ -26319,7 +26319,7 @@
         <v>80630.55414858479</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-21901.42258717319</v>
       </c>
       <c r="E6" t="n">
-        <v>-82825.92099441054</v>
+        <v>-97635.93783352444</v>
       </c>
       <c r="F6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="G6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="H6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="I6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="J6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="K6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="L6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="M6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="N6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="O6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
       <c r="P6" t="n">
-        <v>50274.0790055895</v>
+        <v>35464.0621664756</v>
       </c>
     </row>
   </sheetData>
